--- a/output/dat_2022.xlsx
+++ b/output/dat_2022.xlsx
@@ -605,11 +605,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,11 +691,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -969,11 +969,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,11 +1877,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2043,11 +2043,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2511,13 +2511,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2691,11 +2689,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2793,11 +2791,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,11 +3067,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3173,11 +3171,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3271,11 +3269,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3555,11 +3553,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3739,11 +3737,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3823,11 +3821,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3905,11 +3903,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4399,11 +4397,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5455,11 +5453,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5621,13 +5619,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>3</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5911,11 +5907,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5995,11 +5991,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6787,11 +6783,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7179,11 +7175,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7551,11 +7547,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7635,11 +7631,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7719,11 +7715,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7887,13 +7883,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7973,11 +7967,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8055,11 +8049,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8223,11 +8217,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8311,11 +8305,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8393,11 +8387,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8563,11 +8557,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8649,13 +8643,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8757,13 +8749,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>3</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8845,11 +8835,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9217,13 +9207,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9321,11 +9309,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9423,11 +9411,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9507,11 +9495,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9783,11 +9771,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9885,11 +9873,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9979,11 +9967,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10063,11 +10051,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10349,13 +10337,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>3</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10559,11 +10545,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11299,13 +11285,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>3</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11487,13 +11471,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -12223,11 +12205,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12305,11 +12287,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12403,11 +12385,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12681,11 +12663,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12945,11 +12927,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -13029,11 +13011,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13193,11 +13175,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13471,11 +13453,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13555,11 +13537,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13757,11 +13739,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -14157,11 +14139,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -14333,11 +14315,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -14437,11 +14419,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -14529,11 +14511,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14783,11 +14765,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14887,11 +14869,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -15263,11 +15245,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -15351,11 +15333,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -15867,11 +15849,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -16043,13 +16025,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>3</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -16715,11 +16695,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -16993,13 +16973,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+          <t>ratified convention</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>3</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -17393,11 +17371,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -17847,11 +17825,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -17945,11 +17923,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -18137,11 +18115,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>only signed convention</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -18345,11 +18323,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>signed both convention and protocol</t>
+          <t>ratified convention</t>
         </is>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
